--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Google Drive/Arbeit/A_BiWi/Mandy_PhD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB190C0E-B3C2-9341-8356-604B0436A71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID participant</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -103,11 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -422,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,11 +441,11 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,14 +464,17 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -489,86 +497,107 @@
         <v>867</v>
       </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="I2" s="4">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.67986111111111114</v>
+      </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="G3" s="3">
+        <v>152</v>
+      </c>
+      <c r="I3" s="4">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{93DC0C51-A91E-4B52-B375-742A096E3777}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -430,22 +421,22 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -501,7 +492,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -514,7 +505,9 @@
       <c r="D3" s="2">
         <v>0.67986111111111114</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>0.75</v>
+      </c>
       <c r="F3">
         <v>128</v>
       </c>
@@ -525,223 +518,223 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{93DC0C51-A91E-4B52-B375-742A096E3777}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD02F51B-BBCE-4B3E-B036-0C4280BC9309}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -519,10 +519,18 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.57986111111111105</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="I4" s="4">
+        <v>44405</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD02F51B-BBCE-4B3E-B036-0C4280BC9309}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B476A-05DA-304F-B008-B84C10ABD491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -421,22 +421,22 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -492,7 +492,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -518,231 +518,241 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" s="2">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="E4" s="2"/>
+      <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3">
+        <v>87</v>
+      </c>
       <c r="I4" s="4">
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD02F51B-BBCE-4B3E-B036-0C4280BC9309}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B4B2FB-86EC-432C-BEAA-C9EDEB29B452}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,9 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>0.66249999999999998</v>
+      </c>
       <c r="I4" s="4">
         <v>44405</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CABDF533-C92D-7049-B0FA-67453A5039FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B4B2FB-86EC-432C-BEAA-C9EDEB29B452}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3C42D3-7C46-104D-BB42-25308BAA2EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -421,22 +421,22 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -492,7 +492,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -518,7 +518,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -534,217 +534,223 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>104</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="4">
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3C42D3-7C46-104D-BB42-25308BAA2EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BB79D6-F0E9-7C43-B1B4-2BE45ED7179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,6 +542,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5">
+        <v>34628</v>
+      </c>
       <c r="I5" s="4">
         <v>44413</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BB79D6-F0E9-7C43-B1B4-2BE45ED7179E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B49AF2-3821-F741-ADF6-2690AA2C1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,12 +538,21 @@
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.62013888888888891</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5">
-        <v>34628</v>
+        <v>83</v>
+      </c>
+      <c r="G5" s="3">
+        <v>134</v>
       </c>
       <c r="I5" s="4">
         <v>44413</v>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B49AF2-3821-F741-ADF6-2690AA2C1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5AB72F-BC40-9249-B126-8BDB3AF26FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5AB72F-BC40-9249-B126-8BDB3AF26FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD815C63-63F6-ED4B-BD0A-2B0B84DD8387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,10 +559,28 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6">
+        <v>201</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.54027777777777775</v>
+      </c>
       <c r="E6" s="2"/>
+      <c r="F6" s="3">
+        <v>1025</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1138</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44439</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD815C63-63F6-ED4B-BD0A-2B0B84DD8387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951DCAAF-3CD2-7449-8A7C-75116AE8A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951DCAAF-3CD2-7449-8A7C-75116AE8A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABED12F-7A9F-C041-94A2-85D88B73C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -421,7 +430,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,7 +556,9 @@
       <c r="D5" s="2">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0.6791666666666667</v>
+      </c>
       <c r="F5">
         <v>83</v>
       </c>
@@ -571,7 +582,9 @@
       <c r="D6" s="2">
         <v>0.54027777777777775</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>0.61319444444444449</v>
+      </c>
       <c r="F6" s="3">
         <v>1025</v>
       </c>
@@ -583,10 +596,28 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.66111111111111109</v>
+      </c>
       <c r="E7" s="2"/>
+      <c r="F7" s="3">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2">
+        <v>192</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44440</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABED12F-7A9F-C041-94A2-85D88B73C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE96470-47F6-4645-834F-D4CD6EE228BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +534,9 @@
       <c r="B4" s="2">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>0.60069444444444442</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
         <v>0.66249999999999998</v>
@@ -612,7 +614,7 @@
       <c r="F7" s="3">
         <v>86</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>192</v>
       </c>
       <c r="I7" s="4">
@@ -620,10 +622,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.4597222222222222</v>
+      </c>
       <c r="E8" s="2"/>
+      <c r="F8" s="3">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3">
+        <v>199</v>
+      </c>
+      <c r="I8" s="4">
+        <v>44454</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE96470-47F6-4645-834F-D4CD6EE228BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{AFE96470-47F6-4645-834F-D4CD6EE228BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3104E21-CD25-4BED-9BCB-139FE5D269A3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -430,22 +421,22 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -501,7 +492,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -527,7 +518,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -545,7 +536,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -571,7 +562,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
@@ -597,7 +588,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -610,7 +601,9 @@
       <c r="D7" s="2">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>0.70000000000000007</v>
+      </c>
       <c r="F7" s="3">
         <v>86</v>
       </c>
@@ -621,7 +614,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -634,7 +627,9 @@
       <c r="D8" s="2">
         <v>0.4597222222222222</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>0.51111111111111118</v>
+      </c>
       <c r="F8" s="3">
         <v>63</v>
       </c>
@@ -645,193 +640,213 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>202</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.67152777777777783</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.68888888888888899</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="F9" s="3">
+        <v>157</v>
+      </c>
+      <c r="G9" s="3">
+        <v>528</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{AFE96470-47F6-4645-834F-D4CD6EE228BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3104E21-CD25-4BED-9BCB-139FE5D269A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCDCE06-89A6-ED45-AAC9-08B82824C2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -421,22 +421,22 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -492,7 +492,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -518,7 +518,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -536,7 +536,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -562,7 +562,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -588,7 +588,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -614,7 +614,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -640,7 +640,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -666,187 +666,187 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCDCE06-89A6-ED45-AAC9-08B82824C2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31B6C7-5E59-E14F-AF29-4315B6DBA1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F31B6C7-5E59-E14F-AF29-4315B6DBA1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E344A51-FF7C-8642-BDB6-E6D3F2861177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E344A51-FF7C-8642-BDB6-E6D3F2861177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{22A95FC1-668C-4563-B158-DDFF35FD41DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -421,22 +421,22 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -492,7 +492,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -518,7 +518,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -536,7 +536,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -562,7 +562,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
@@ -588,7 +588,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -614,7 +614,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -640,7 +640,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
@@ -666,187 +666,207 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>203</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F10" s="3">
+        <v>62</v>
+      </c>
+      <c r="G10" s="3">
+        <v>260</v>
+      </c>
+      <c r="I10" s="4">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{22A95FC1-668C-4563-B158-DDFF35FD41DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3407333B-D4BE-4B6F-B79B-62712902A1EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="516" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -97,13 +97,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -418,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -481,13 +482,15 @@
       <c r="E2" s="2">
         <v>0.7270833333333333</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>824</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>867</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="6">
+        <v>43</v>
+      </c>
       <c r="I2" s="4">
         <v>44398</v>
       </c>
@@ -508,11 +511,14 @@
       <c r="E3" s="2">
         <v>0.75</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>128</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>152</v>
+      </c>
+      <c r="H3" s="6">
+        <v>24</v>
       </c>
       <c r="I3" s="4">
         <v>44404</v>
@@ -532,6 +538,9 @@
       <c r="E4" s="2">
         <v>0.66249999999999998</v>
       </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="4">
         <v>44405</v>
       </c>
@@ -552,11 +561,14 @@
       <c r="E5" s="2">
         <v>0.6791666666666667</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>83</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>134</v>
+      </c>
+      <c r="H5" s="6">
+        <v>51</v>
       </c>
       <c r="I5" s="4">
         <v>44413</v>
@@ -578,11 +590,14 @@
       <c r="E6" s="2">
         <v>0.61319444444444449</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>1025</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>1138</v>
+      </c>
+      <c r="H6" s="6">
+        <v>113</v>
       </c>
       <c r="I6" s="4">
         <v>44439</v>
@@ -604,11 +619,14 @@
       <c r="E7" s="2">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>86</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>192</v>
+      </c>
+      <c r="H7" s="6">
+        <v>106</v>
       </c>
       <c r="I7" s="4">
         <v>44440</v>
@@ -630,11 +648,14 @@
       <c r="E8" s="2">
         <v>0.51111111111111118</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>63</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>199</v>
+      </c>
+      <c r="H8" s="6">
+        <v>136</v>
       </c>
       <c r="I8" s="4">
         <v>44454</v>
@@ -656,11 +677,14 @@
       <c r="E9" s="2">
         <v>0.78472222222222221</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>157</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>528</v>
+      </c>
+      <c r="H9" s="6">
+        <v>371</v>
       </c>
       <c r="I9" s="4">
         <v>44466</v>
@@ -682,197 +706,801 @@
       <c r="E10" s="2">
         <v>0.70138888888888884</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>62</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>260</v>
+      </c>
+      <c r="H10" s="6">
+        <v>198</v>
       </c>
       <c r="I10" s="4">
         <v>44474</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="A11">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="F11" s="6">
+        <v>112</v>
+      </c>
+      <c r="G11" s="6">
+        <v>232</v>
+      </c>
+      <c r="H11" s="6">
+        <v>120</v>
+      </c>
+      <c r="I11" s="4">
+        <v>44475</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3407333B-D4BE-4B6F-B79B-62712902A1EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="102_{E3DBFF53-D654-4734-95F9-D342C34FAF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{661CCCBA-935E-4163-8E65-9BB19A3131AD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="516" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -749,13 +749,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12">
+        <v>108</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.49027777777777781</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="6">
+        <v>63</v>
+      </c>
+      <c r="G12" s="6">
+        <v>88</v>
+      </c>
+      <c r="H12" s="6">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4">
+        <v>44482</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="102_{E3DBFF53-D654-4734-95F9-D342C34FAF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{661CCCBA-935E-4163-8E65-9BB19A3131AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138BCCB8-494B-4745-AD42-9F3B80DEF501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -422,22 +431,22 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -495,7 +504,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -524,7 +533,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -545,7 +554,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -574,7 +583,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -603,7 +612,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -632,7 +641,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -661,7 +670,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -690,7 +699,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>203</v>
       </c>
@@ -719,7 +728,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -748,7 +757,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -775,16 +784,35 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.66111111111111109</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F13" s="6">
+        <v>202</v>
+      </c>
+      <c r="G13" s="6">
+        <v>318</v>
+      </c>
+      <c r="H13" s="6">
+        <f>G13-F13</f>
+        <v>116</v>
+      </c>
+      <c r="I13" s="4">
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -793,7 +821,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -802,7 +830,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -811,7 +839,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -820,7 +848,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -829,7 +857,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -838,7 +866,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -847,7 +875,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -856,7 +884,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -865,7 +893,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -874,7 +902,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -883,7 +911,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -892,7 +920,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -901,7 +929,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -910,7 +938,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -919,7 +947,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -928,7 +956,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -937,7 +965,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -946,7 +974,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -955,7 +983,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -964,7 +992,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -973,7 +1001,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -982,7 +1010,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -991,7 +1019,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1000,7 +1028,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1009,7 +1037,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1018,7 +1046,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1027,492 +1055,492 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\service\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138BCCB8-494B-4745-AD42-9F3B80DEF501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A949F2D8-364E-4950-8872-375A746D6D83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16245" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -431,22 +422,22 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -504,7 +495,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -533,7 +524,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -554,7 +545,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -583,7 +574,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>201</v>
       </c>
@@ -612,7 +603,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>105</v>
       </c>
@@ -641,7 +632,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>106</v>
       </c>
@@ -670,7 +661,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>202</v>
       </c>
@@ -699,7 +690,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>203</v>
       </c>
@@ -728,7 +719,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>107</v>
       </c>
@@ -757,7 +748,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>108</v>
       </c>
@@ -784,7 +775,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>109</v>
       </c>
@@ -797,7 +788,9 @@
       <c r="D13" s="2">
         <v>0.66111111111111109</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>0.71597222222222223</v>
+      </c>
       <c r="F13" s="6">
         <v>202</v>
       </c>
@@ -812,16 +805,36 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.58263888888888882</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="F14" s="6">
+        <v>59</v>
+      </c>
+      <c r="G14" s="6">
+        <v>108</v>
+      </c>
+      <c r="H14" s="6">
+        <v>49</v>
+      </c>
+      <c r="I14" s="4">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -830,7 +843,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -839,7 +852,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -848,7 +861,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -857,7 +870,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -866,7 +879,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -875,7 +888,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -884,7 +897,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -893,7 +906,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -902,7 +915,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -911,7 +924,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -920,7 +933,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -929,7 +942,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -938,7 +951,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -947,7 +960,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -956,7 +969,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -965,7 +978,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -974,7 +987,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -983,7 +996,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -992,7 +1005,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1001,7 +1014,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1010,7 +1023,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1019,7 +1032,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1028,7 +1041,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1037,7 +1050,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1046,7 +1059,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1055,492 +1068,492 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\service\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A949F2D8-364E-4950-8872-375A746D6D83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D930008-1FFD-A945-93DC-35992DE41251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16245" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -422,22 +431,22 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -495,7 +504,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -524,7 +533,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -545,7 +554,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -574,7 +583,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -603,7 +612,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -632,7 +641,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -661,7 +670,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -690,7 +699,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>203</v>
       </c>
@@ -719,7 +728,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -748,7 +757,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -775,7 +784,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>109</v>
       </c>
@@ -805,7 +814,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>110</v>
       </c>
@@ -834,16 +843,32 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.6777777777777777</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="6">
+        <v>170</v>
+      </c>
+      <c r="G15" s="6">
+        <v>259</v>
+      </c>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="4">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -852,7 +877,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -861,7 +886,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -870,7 +895,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -879,7 +904,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -888,7 +913,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -897,7 +922,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -906,7 +931,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -915,7 +940,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -924,7 +949,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -933,7 +958,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -942,7 +967,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -951,7 +976,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -960,7 +985,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -969,7 +994,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -978,7 +1003,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -987,7 +1012,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -996,7 +1021,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1005,7 +1030,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1014,7 +1039,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1023,7 +1048,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1032,7 +1057,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1041,7 +1066,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1050,7 +1075,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1059,7 +1084,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1068,492 +1093,492 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D930008-1FFD-A945-93DC-35992DE41251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E96B19D-C330-47CE-B9A9-6E5C2BBCC069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -431,22 +422,22 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -504,7 +495,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -533,7 +524,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -554,7 +545,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -583,7 +574,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
@@ -612,7 +603,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -641,7 +632,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -670,7 +661,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
@@ -699,7 +690,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>203</v>
       </c>
@@ -728,7 +719,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>107</v>
       </c>
@@ -757,7 +748,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>108</v>
       </c>
@@ -784,7 +775,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>109</v>
       </c>
@@ -814,7 +805,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>110</v>
       </c>
@@ -843,7 +834,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>111</v>
       </c>
@@ -868,25 +859,37 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="4">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>206</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.44861111111111113</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F17" s="6">
+        <v>233</v>
+      </c>
+      <c r="G17" s="6">
+        <v>318</v>
+      </c>
+      <c r="H17" s="6">
+        <v>85</v>
+      </c>
+      <c r="I17" s="4">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -895,7 +898,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -904,7 +907,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -913,7 +916,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -922,7 +925,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -931,7 +934,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -940,7 +943,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -949,7 +952,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -958,7 +961,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -967,7 +970,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -976,7 +979,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -985,7 +988,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -994,7 +997,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1003,7 +1006,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1012,7 +1015,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1021,7 +1024,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1030,7 +1033,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1039,7 +1042,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1048,7 +1051,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1057,7 +1060,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1066,7 +1069,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1075,7 +1078,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1084,7 +1087,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1093,492 +1096,492 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E96B19D-C330-47CE-B9A9-6E5C2BBCC069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{408044D2-2677-4AC1-8F55-CACD2AB4EF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -58,8 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -97,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -105,6 +106,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -847,58 +850,104 @@
       <c r="D15" s="2">
         <v>0.6777777777777777</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F15" s="6">
         <v>170</v>
       </c>
       <c r="G15" s="6">
         <v>259</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6">
+        <f>SUM(G15-F15)</f>
+        <v>89</v>
+      </c>
       <c r="I15" s="4">
         <v>44515</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>112</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="H16" s="6">
+        <f>SUM(G16-F16)</f>
+        <v>0</v>
+      </c>
       <c r="I16" s="4">
         <v>44547</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>205</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F17" s="6">
+        <v>160</v>
+      </c>
+      <c r="G17" s="6">
+        <v>189</v>
+      </c>
+      <c r="H17" s="6">
+        <f>SUM(G17-F17)</f>
+        <v>29</v>
+      </c>
+      <c r="I17" s="4">
+        <v>44526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>206</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2">
+      <c r="B18" s="2">
+        <v>0.42291666666666666</v>
+      </c>
+      <c r="C18" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>0.44861111111111113</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6">
+      <c r="E18" s="2">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="F18" s="6">
         <v>233</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>318</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <v>85</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>44568</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>113</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -906,6 +955,9 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
+      <c r="I19" s="4">
+        <v>44571</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
@@ -1097,6 +1149,10 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -1585,6 +1641,11 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{408044D2-2677-4AC1-8F55-CACD2AB4EF77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EE49D2-743C-184C-A7BD-0D79461F628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,7 +69,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,7 +116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -425,22 +434,22 @@
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -498,7 +507,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -527,7 +536,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -548,7 +557,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -577,7 +586,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -606,7 +615,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -635,7 +644,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -664,7 +673,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -693,7 +702,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>203</v>
       </c>
@@ -722,7 +731,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -751,7 +760,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -778,7 +787,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>109</v>
       </c>
@@ -808,7 +817,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>110</v>
       </c>
@@ -837,7 +846,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111</v>
       </c>
@@ -867,7 +876,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112</v>
       </c>
@@ -885,7 +894,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>205</v>
       </c>
@@ -915,7 +924,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>206</v>
       </c>
@@ -944,22 +953,37 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>113</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="F19" s="6">
+        <v>138</v>
+      </c>
+      <c r="G19" s="6">
+        <v>491</v>
+      </c>
+      <c r="H19" s="6">
+        <f>G19-F19</f>
+        <v>353</v>
+      </c>
       <c r="I19" s="4">
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -968,7 +992,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -977,7 +1001,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -986,7 +1010,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -995,7 +1019,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1004,7 +1028,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1013,7 +1037,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1022,7 +1046,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1031,7 +1055,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1040,7 +1064,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1049,7 +1073,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1058,7 +1082,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1067,7 +1091,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1076,7 +1100,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1085,7 +1109,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1094,7 +1118,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1103,7 +1127,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1112,7 +1136,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1121,7 +1145,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1130,7 +1154,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1139,7 +1163,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1148,7 +1172,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1157,492 +1181,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EE49D2-743C-184C-A7BD-0D79461F628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF061E-FB78-2048-9572-75DD120A1F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -117,6 +117,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -434,7 +435,7 @@
   <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,9 +887,21 @@
       <c r="C16" s="7">
         <v>0.44097222222222227</v>
       </c>
+      <c r="D16" s="9">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="F16" s="6">
+        <v>225</v>
+      </c>
+      <c r="G16" s="6">
+        <v>351</v>
+      </c>
       <c r="H16" s="6">
         <f>SUM(G16-F16)</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="I16" s="4">
         <v>44547</v>
@@ -984,22 +997,64 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A20">
+        <v>207</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.44375000000000003</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F20" s="6">
+        <v>276</v>
+      </c>
+      <c r="G20" s="6">
+        <v>585</v>
+      </c>
+      <c r="H20" s="6">
+        <f>G20-F20</f>
+        <v>309</v>
+      </c>
+      <c r="I20" s="4">
+        <v>44578</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="A21">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="F21" s="6">
+        <v>107</v>
+      </c>
+      <c r="G21" s="6">
+        <v>179</v>
+      </c>
+      <c r="H21" s="6">
+        <f>G21-F21</f>
+        <v>72</v>
+      </c>
+      <c r="I21" s="4">
+        <v>44572</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF061E-FB78-2048-9572-75DD120A1F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E679F46-852E-714A-A521-303CAF79DD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID participant</t>
   </si>
@@ -62,6 +62,12 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +77,7 @@
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +91,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,6 +143,1904 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97173F9-3D20-7341-BAA2-33912D667C1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1219200</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0CEAEF-B586-F045-9A7B-58E3D10800C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6228F6-37DC-D44A-BEBE-2834B5357803}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3408BCCF-E1AE-BC44-9F2D-F7FB287F1319}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9F4FB5-70D6-C840-B15C-8FB68664FE12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A74BA4F-C19C-EA45-9E90-12255C04EF2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B7D948-0CF2-E647-8FA6-5500B6022C19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422A84A-0565-B345-9981-B19EC970DEB0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224C4D72-5EC9-EE48-B73F-BB080E22850D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96136CC-5FEF-1046-A9D5-33E99E1DBC9F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F643410-1435-6540-83CF-F9175EE2F303}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F11DD9-1A18-9847-B8B8-5D7CE17DD146}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF170643-C7DE-8743-94C7-F038123F4CEC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92AC26D-99CB-9044-A8D3-C5CA4FEE37B5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9A422C-1AE7-3B46-8AD5-852241F929A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1043"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7602B91D-4084-F745-9DB1-F64564C927F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5673C2-943F-1947-9D56-A29EDFA93FD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CEC457-CD47-9541-AE5F-FB172C210E2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB217D0-4F92-AF49-BF36-CC070DA1695C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E80BEB0-713E-0745-B0D4-1901E693BA99}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC0E12-6381-8E4B-BDFE-F167B54755FE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC0047D-049B-FD4B-B300-05A61F91BD04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109B22C8-0027-7D44-B0A4-03EB10E8424D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C0BA2B-DFD2-C44A-88E2-43272FCD1539}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92706F20-592A-B54D-B77F-51AE41829353}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276FDB69-5AC9-5E45-B549-3A513DE8CCF6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41A81E3-3E7C-364D-A5C4-FC5182E0B2E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC300A1-8DAE-5343-A9DF-214940473A68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,14 +2339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
-  <dimension ref="A1:I139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -448,9 +2356,10 @@
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +2387,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>101</v>
       </c>
@@ -508,7 +2423,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>102</v>
       </c>
@@ -537,7 +2452,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>103</v>
       </c>
@@ -558,7 +2473,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>104</v>
       </c>
@@ -587,7 +2502,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>201</v>
       </c>
@@ -616,7 +2531,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>105</v>
       </c>
@@ -645,7 +2560,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>106</v>
       </c>
@@ -674,7 +2589,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>202</v>
       </c>
@@ -703,7 +2618,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>203</v>
       </c>
@@ -732,7 +2647,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>107</v>
       </c>
@@ -761,7 +2676,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>108</v>
       </c>
@@ -787,8 +2702,11 @@
       <c r="I12" s="4">
         <v>44482</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>109</v>
       </c>
@@ -818,7 +2736,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>110</v>
       </c>
@@ -847,7 +2765,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>111</v>
       </c>
@@ -877,7 +2795,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>112</v>
       </c>
@@ -907,7 +2825,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>205</v>
       </c>
@@ -937,7 +2855,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>206</v>
       </c>
@@ -966,7 +2884,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>113</v>
       </c>
@@ -996,7 +2914,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>207</v>
       </c>
@@ -1026,7 +2944,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>114</v>
       </c>
@@ -1056,7 +2974,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1065,7 +2983,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1074,7 +2992,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1083,7 +3001,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1092,7 +3010,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1101,7 +3019,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1110,7 +3028,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1119,7 +3037,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1128,7 +3046,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1137,7 +3055,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1146,7 +3064,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1155,7 +3073,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1164,7 +3082,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1173,7 +3091,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1182,7 +3100,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1191,7 +3109,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1200,7 +3118,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1209,7 +3127,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1218,7 +3136,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1227,7 +3145,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1236,492 +3154,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:8">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:8">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:8">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:8">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:8">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:8">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:8">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:8">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:8">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:8">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:8">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:8">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:8">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:8">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:8">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:8">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:8">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:8">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:8">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:8">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:8">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:8">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:8">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:8">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:8">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:8">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:8">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:8">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:8">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:8">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:8">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:8">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:8">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:8">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:8">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:8">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:8">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:8">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:8">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:8">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:8">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:8">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:8">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:8">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:8">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:8">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:8">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:8">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:8">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:8">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:8">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:8">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:8">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:8">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:8">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:8">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:8">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:8">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:8">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:8">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:8">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:8">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:8">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:8">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:8">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:8">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:8">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:8">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:8">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:8">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:8">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:8">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:8">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:8">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:8">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -1729,5 +3647,629 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId5" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>1219200</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId6" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId7" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId8" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId9" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId10" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId11" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId12" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId13" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId14" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId15" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId16" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId17" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1042" r:id="rId18" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1043" r:id="rId19" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId20" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId21" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId22" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId23" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId24" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId25" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId26" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId27" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId28" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId29" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId30" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId31" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E679F46-852E-714A-A521-303CAF79DD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5116CEE-474E-064C-9726-06F98DDE1811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,10 +91,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -127,7 +123,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -194,39 +189,39 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -282,7 +277,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97173F9-3D20-7341-BAA2-33912D667C1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -349,7 +344,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0CEAEF-B586-F045-9A7B-58E3D10800C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -416,7 +411,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6228F6-37DC-D44A-BEBE-2834B5357803}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -483,7 +478,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3408BCCF-E1AE-BC44-9F2D-F7FB287F1319}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -550,7 +545,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9F4FB5-70D6-C840-B15C-8FB68664FE12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -617,7 +612,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A74BA4F-C19C-EA45-9E90-12255C04EF2C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -684,7 +679,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B7D948-0CF2-E647-8FA6-5500B6022C19}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -751,7 +746,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E422A84A-0565-B345-9981-B19EC970DEB0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -818,7 +813,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{224C4D72-5EC9-EE48-B73F-BB080E22850D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -864,14 +859,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -880,7 +880,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96136CC-5FEF-1046-A9D5-33E99E1DBC9F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -920,20 +920,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -942,7 +947,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F643410-1435-6540-83CF-F9175EE2F303}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -982,20 +987,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1004,7 +1014,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F11DD9-1A18-9847-B8B8-5D7CE17DD146}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1044,20 +1054,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1066,7 +1081,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF170643-C7DE-8743-94C7-F038123F4CEC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1106,20 +1121,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -1128,7 +1148,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92AC26D-99CB-9044-A8D3-C5CA4FEE37B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1168,20 +1188,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -1190,7 +1215,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9A422C-1AE7-3B46-8AD5-852241F929A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1230,20 +1255,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -1252,7 +1282,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7602B91D-4084-F745-9DB1-F64564C927F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1292,20 +1322,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -1314,7 +1349,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5673C2-943F-1947-9D56-A29EDFA93FD9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1354,20 +1389,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -1376,7 +1416,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CEC457-CD47-9541-AE5F-FB172C210E2B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1416,20 +1456,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -1438,7 +1483,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB217D0-4F92-AF49-BF36-CC070DA1695C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1478,20 +1523,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -1500,7 +1550,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E80BEB0-713E-0745-B0D4-1901E693BA99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1540,20 +1590,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -1562,7 +1617,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC0E12-6381-8E4B-BDFE-F167B54755FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1602,20 +1657,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -1624,7 +1684,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADC0047D-049B-FD4B-B300-05A61F91BD04}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1664,20 +1724,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -1686,7 +1751,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109B22C8-0027-7D44-B0A4-03EB10E8424D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1726,20 +1791,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -1748,7 +1818,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C0BA2B-DFD2-C44A-88E2-43272FCD1539}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1788,20 +1858,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -1810,7 +1885,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92706F20-592A-B54D-B77F-51AE41829353}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1850,20 +1925,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -1872,7 +1952,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276FDB69-5AC9-5E45-B549-3A513DE8CCF6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1912,20 +1992,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -1934,7 +2019,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41A81E3-3E7C-364D-A5C4-FC5182E0B2E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1974,20 +2059,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1219200" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -1996,7 +2086,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC300A1-8DAE-5343-A9DF-214940473A68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2036,7 +2126,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2342,11 +2432,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -2359,7 +2449,7 @@
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2394,7 +2484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2423,7 +2513,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -2452,7 +2542,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -2462,7 +2552,9 @@
       <c r="C4" s="2">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0.61249999999999993</v>
+      </c>
       <c r="E4" s="2">
         <v>0.66249999999999998</v>
       </c>
@@ -2473,7 +2565,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2502,7 +2594,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -2531,7 +2623,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2560,7 +2652,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2589,7 +2681,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -2618,7 +2710,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>203</v>
       </c>
@@ -2647,7 +2739,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -2676,7 +2768,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -2706,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>109</v>
       </c>
@@ -2736,7 +2828,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>110</v>
       </c>
@@ -2765,7 +2857,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111</v>
       </c>
@@ -2795,7 +2887,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112</v>
       </c>
@@ -2805,10 +2897,10 @@
       <c r="C16" s="7">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="2">
         <v>0.45277777777777778</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="2">
         <v>0.49861111111111112</v>
       </c>
       <c r="F16" s="6">
@@ -2825,21 +2917,21 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>205</v>
       </c>
       <c r="B17" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.4152777777777778</v>
       </c>
       <c r="C17" s="7">
-        <v>0.42708333333333331</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="D17" s="7">
-        <v>0.44791666666666669</v>
+        <v>0.4458333333333333</v>
       </c>
       <c r="E17" s="8">
-        <v>0.47916666666666669</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="F17" s="6">
         <v>160</v>
@@ -2855,7 +2947,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>206</v>
       </c>
@@ -2884,7 +2976,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>113</v>
       </c>
@@ -2914,7 +3006,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>207</v>
       </c>
@@ -2944,7 +3036,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>114</v>
       </c>
@@ -2974,7 +3066,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2983,7 +3075,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2992,7 +3084,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3001,7 +3093,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3010,7 +3102,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3019,7 +3111,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3028,7 +3120,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3037,7 +3129,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3046,7 +3138,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3055,7 +3147,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3064,7 +3156,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3073,7 +3165,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3082,7 +3174,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3091,7 +3183,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3100,7 +3192,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3109,7 +3201,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3118,7 +3210,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3127,7 +3219,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3136,7 +3228,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3145,7 +3237,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3154,492 +3246,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5116CEE-474E-064C-9726-06F98DDE1811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B449C-57D1-487C-9BE1-27CD32790742}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID participant</t>
   </si>
@@ -67,6 +58,9 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>19.01.20021</t>
   </si>
 </sst>
 </file>
@@ -259,7 +253,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -393,7 +387,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -460,7 +454,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -527,7 +521,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -594,7 +588,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -661,7 +655,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -728,7 +722,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -795,7 +789,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -862,7 +856,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -929,7 +923,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -996,7 +990,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1063,7 +1057,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1130,7 +1124,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1197,7 +1191,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1264,7 +1258,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1331,7 +1325,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1398,7 +1392,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1465,7 +1459,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1532,7 +1526,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1599,7 +1593,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1666,7 +1660,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1733,7 +1727,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1800,7 +1794,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1867,7 +1861,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1934,7 +1928,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2001,7 +1995,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2068,7 +2062,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2432,24 +2426,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2513,7 +2507,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -2542,7 +2536,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -2565,7 +2559,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2594,7 +2588,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
@@ -2623,7 +2617,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2652,7 +2646,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2681,7 +2675,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
@@ -2710,7 +2704,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>203</v>
       </c>
@@ -2739,7 +2733,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>107</v>
       </c>
@@ -2768,7 +2762,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>108</v>
       </c>
@@ -2798,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>109</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>110</v>
       </c>
@@ -2857,7 +2851,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>111</v>
       </c>
@@ -2887,7 +2881,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>112</v>
       </c>
@@ -2917,7 +2911,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>205</v>
       </c>
@@ -2947,7 +2941,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>206</v>
       </c>
@@ -2976,7 +2970,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113</v>
       </c>
@@ -3006,7 +3000,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>207</v>
       </c>
@@ -3036,7 +3030,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>114</v>
       </c>
@@ -3059,23 +3053,40 @@
         <v>179</v>
       </c>
       <c r="H21" s="6">
-        <f>G21-F21</f>
-        <v>72</v>
+        <f>F22</f>
+        <v>187</v>
       </c>
       <c r="I21" s="4">
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>115</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.42777777777777781</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="6">
+        <v>187</v>
+      </c>
+      <c r="G22" s="6">
+        <v>754</v>
+      </c>
+      <c r="H22" s="6">
+        <f>G22-F22</f>
+        <v>567</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3084,7 +3095,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3093,7 +3104,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3102,7 +3113,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3111,7 +3122,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3120,7 +3131,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3129,7 +3140,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3138,7 +3149,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3147,7 +3158,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3156,7 +3167,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3165,7 +3176,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3174,7 +3185,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3183,7 +3194,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3192,7 +3203,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3201,7 +3212,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3210,7 +3221,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3219,7 +3230,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3228,7 +3239,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3237,7 +3248,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3246,492 +3257,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -3751,7 +3762,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3795,7 +3806,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3817,7 +3828,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3839,7 +3850,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3861,7 +3872,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3883,7 +3894,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3905,7 +3916,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3927,7 +3938,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3949,7 +3960,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3971,7 +3982,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3993,7 +4004,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4015,7 +4026,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4037,7 +4048,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4059,7 +4070,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4081,7 +4092,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4103,7 +4114,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4125,7 +4136,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4147,7 +4158,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4169,7 +4180,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4191,7 +4202,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4213,7 +4224,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4235,7 +4246,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4257,7 +4268,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4279,7 +4290,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4301,7 +4312,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4323,7 +4334,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4345,7 +4356,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9B449C-57D1-487C-9BE1-27CD32790742}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{9FE82235-59EC-4842-BC6E-912145EDE606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -218,6 +218,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2081,6 +2085,73 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125200C-B4DD-4D85-A6D2-885C930DE46B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2427,7 +2498,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2775,7 +2846,9 @@
       <c r="D12" s="2">
         <v>0.49027777777777781</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>0.53611111111111109</v>
+      </c>
       <c r="F12" s="6">
         <v>63</v>
       </c>
@@ -2788,9 +2861,7 @@
       <c r="I12" s="4">
         <v>44482</v>
       </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -3064,14 +3135,18 @@
       <c r="A22">
         <v>115</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>0.38680555555555557</v>
+      </c>
       <c r="C22" s="2">
         <v>0.4152777777777778</v>
       </c>
       <c r="D22" s="2">
         <v>0.42777777777777781</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>0.47430555555555554</v>
+      </c>
       <c r="F22" s="6">
         <v>187</v>
       </c>
@@ -4371,6 +4446,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId32" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{9FE82235-59EC-4842-BC6E-912145EDE606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155E24B-44C9-924E-A0E6-595AAA8B135E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID participant</t>
   </si>
@@ -58,9 +67,6 @@
   </si>
   <si>
     <t>Missing</t>
-  </si>
-  <si>
-    <t>19.01.20021</t>
   </si>
 </sst>
 </file>
@@ -226,6 +232,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -257,7 +267,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -297,14 +307,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -364,14 +374,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -391,7 +401,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -431,14 +441,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -458,7 +468,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -498,14 +508,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -525,7 +535,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -565,14 +575,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -592,7 +602,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -632,14 +642,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -659,7 +669,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -699,14 +709,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -726,7 +736,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -766,14 +776,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -793,7 +803,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -833,14 +843,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -860,7 +870,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -900,14 +910,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -927,7 +937,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -967,14 +977,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -994,7 +1004,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1034,14 +1044,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1061,7 +1071,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1101,14 +1111,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1128,7 +1138,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1168,14 +1178,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1195,7 +1205,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1235,14 +1245,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1262,7 +1272,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1302,14 +1312,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1329,7 +1339,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1369,14 +1379,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1396,7 +1406,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1436,14 +1446,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1463,7 +1473,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1503,14 +1513,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1530,7 +1540,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1570,14 +1580,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1597,7 +1607,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1637,14 +1647,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1664,7 +1674,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1704,14 +1714,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1731,7 +1741,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1771,14 +1781,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1798,7 +1808,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1838,14 +1848,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1865,7 +1875,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1905,14 +1915,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1932,7 +1942,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1972,14 +1982,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1999,7 +2009,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2039,14 +2049,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2066,7 +2076,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2106,14 +2116,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2133,7 +2143,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2151,7 +2161,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125200C-B4DD-4D85-A6D2-885C930DE46B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2173,14 +2183,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2192,6 +2202,68 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF4CFAE-FF44-B042-AF5C-21525C4DC02A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2498,23 +2570,23 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2578,7 +2650,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -2607,7 +2679,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -2630,7 +2702,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2659,7 +2731,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -2688,7 +2760,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2717,7 +2789,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2746,7 +2818,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -2775,7 +2847,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>203</v>
       </c>
@@ -2804,7 +2876,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -2833,7 +2905,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -2863,7 +2935,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>109</v>
       </c>
@@ -2893,7 +2965,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>110</v>
       </c>
@@ -2922,7 +2994,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111</v>
       </c>
@@ -2952,7 +3024,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112</v>
       </c>
@@ -2982,7 +3054,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>205</v>
       </c>
@@ -3012,7 +3084,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>206</v>
       </c>
@@ -3041,7 +3113,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>113</v>
       </c>
@@ -3071,7 +3143,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>207</v>
       </c>
@@ -3101,7 +3173,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>114</v>
       </c>
@@ -3131,7 +3203,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>115</v>
       </c>
@@ -3157,20 +3229,41 @@
         <f>G22-F22</f>
         <v>567</v>
       </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="4">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>116</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F23" s="6">
+        <v>170</v>
+      </c>
+      <c r="G23" s="6">
+        <v>630</v>
+      </c>
+      <c r="H23" s="6">
+        <f>G23-F23</f>
+        <v>460</v>
+      </c>
+      <c r="I23" s="4">
+        <v>44220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3179,7 +3272,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3188,7 +3281,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3197,7 +3290,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3206,7 +3299,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3215,7 +3308,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3224,7 +3317,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3233,7 +3326,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3242,7 +3335,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3251,7 +3344,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3260,7 +3353,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3269,7 +3362,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3278,7 +3371,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3287,7 +3380,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3296,7 +3389,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3305,7 +3398,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3314,7 +3407,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3323,7 +3416,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3332,492 +3425,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -3837,7 +3930,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3881,7 +3974,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3903,7 +3996,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3925,7 +4018,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3947,7 +4040,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3969,7 +4062,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3991,7 +4084,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4013,7 +4106,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4035,7 +4128,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4057,7 +4150,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4079,7 +4172,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4101,7 +4194,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4123,7 +4216,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4145,7 +4238,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4167,7 +4260,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4189,7 +4282,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4211,7 +4304,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4233,7 +4326,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4255,7 +4348,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4277,7 +4370,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4299,7 +4392,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4321,7 +4414,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4343,7 +4436,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4365,7 +4458,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4387,7 +4480,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4409,7 +4502,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4431,7 +4524,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4453,7 +4546,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4461,6 +4554,28 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId33" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155E24B-44C9-924E-A0E6-595AAA8B135E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53BD06F-DDF8-FA44-97F5-CA42DABA7117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -236,6 +236,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2207,14 +2211,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -2223,7 +2232,69 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF4CFAE-FF44-B042-AF5C-21525C4DC02A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050925E5-C2BB-964E-96C5-2BE88D92B451}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2570,7 +2641,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3230,7 +3301,7 @@
         <v>567</v>
       </c>
       <c r="I22" s="4">
-        <v>44215</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3260,17 +3331,38 @@
         <v>460</v>
       </c>
       <c r="I23" s="4">
-        <v>44220</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24">
+        <v>117</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F24" s="6">
+        <v>38</v>
+      </c>
+      <c r="G24" s="6">
+        <v>38</v>
+      </c>
+      <c r="H24" s="6">
+        <f>G24-F24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>44592</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
@@ -4583,6 +4675,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId34" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{9FE82235-59EC-4842-BC6E-912145EDE606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53BD06F-DDF8-FA44-97F5-CA42DABA7117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID participant</t>
   </si>
@@ -58,9 +67,6 @@
   </si>
   <si>
     <t>Missing</t>
-  </si>
-  <si>
-    <t>19.01.20021</t>
   </si>
 </sst>
 </file>
@@ -226,6 +232,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -257,7 +271,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -297,14 +311,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -364,14 +378,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -391,7 +405,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -431,14 +445,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -458,7 +472,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -498,14 +512,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -525,7 +539,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -565,14 +579,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -592,7 +606,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -632,14 +646,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -659,7 +673,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -699,14 +713,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -726,7 +740,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -766,14 +780,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -793,7 +807,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -833,14 +847,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -860,7 +874,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -900,14 +914,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -927,7 +941,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -967,14 +981,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -994,7 +1008,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1034,14 +1048,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1061,7 +1075,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1101,14 +1115,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1128,7 +1142,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1168,14 +1182,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1195,7 +1209,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1235,14 +1249,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1262,7 +1276,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1302,14 +1316,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1329,7 +1343,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1369,14 +1383,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1396,7 +1410,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1436,14 +1450,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1463,7 +1477,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1503,14 +1517,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1530,7 +1544,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1570,14 +1584,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1597,7 +1611,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1637,14 +1651,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1664,7 +1678,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1704,14 +1718,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1731,7 +1745,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1771,14 +1785,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1798,7 +1812,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1838,14 +1852,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1865,7 +1879,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1905,14 +1919,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1932,7 +1946,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1972,14 +1986,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -1999,7 +2013,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2039,14 +2053,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2066,7 +2080,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2106,14 +2120,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2133,7 +2147,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2151,7 +2165,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5125200C-B4DD-4D85-A6D2-885C930DE46B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2173,14 +2187,14 @@
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
                   <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a14:hiddenFill>
               </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                    <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
@@ -2192,6 +2206,135 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050925E5-C2BB-964E-96C5-2BE88D92B451}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2501,20 +2644,20 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2578,7 +2721,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -2607,7 +2750,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -2630,7 +2773,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2659,7 +2802,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -2688,7 +2831,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2717,7 +2860,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2746,7 +2889,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -2775,7 +2918,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>203</v>
       </c>
@@ -2804,7 +2947,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -2833,7 +2976,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -2863,7 +3006,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>109</v>
       </c>
@@ -2893,7 +3036,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>110</v>
       </c>
@@ -2922,7 +3065,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111</v>
       </c>
@@ -2952,7 +3095,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112</v>
       </c>
@@ -2982,7 +3125,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>205</v>
       </c>
@@ -3012,7 +3155,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>206</v>
       </c>
@@ -3041,7 +3184,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>113</v>
       </c>
@@ -3071,7 +3214,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>207</v>
       </c>
@@ -3101,7 +3244,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>114</v>
       </c>
@@ -3131,7 +3274,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>115</v>
       </c>
@@ -3157,29 +3300,71 @@
         <f>G22-F22</f>
         <v>567</v>
       </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="4">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>116</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F23" s="6">
+        <v>170</v>
+      </c>
+      <c r="G23" s="6">
+        <v>630</v>
+      </c>
+      <c r="H23" s="6">
+        <f>G23-F23</f>
+        <v>460</v>
+      </c>
+      <c r="I23" s="4">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>117</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.55277777777777781</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="F24" s="6">
+        <v>38</v>
+      </c>
+      <c r="G24" s="6">
+        <v>38</v>
+      </c>
+      <c r="H24" s="6">
+        <f>G24-F24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3188,7 +3373,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3197,7 +3382,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3206,7 +3391,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3215,7 +3400,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3224,7 +3409,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3233,7 +3418,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3242,7 +3427,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3251,7 +3436,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3260,7 +3445,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3269,7 +3454,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3278,7 +3463,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3287,7 +3472,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3296,7 +3481,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3305,7 +3490,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3314,7 +3499,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3323,7 +3508,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3332,492 +3517,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -3837,7 +4022,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3881,7 +4066,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3903,7 +4088,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3925,7 +4110,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3947,7 +4132,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3969,7 +4154,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -3991,7 +4176,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4013,7 +4198,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4035,7 +4220,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4057,7 +4242,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4079,7 +4264,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4101,7 +4286,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4123,7 +4308,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4145,7 +4330,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4167,7 +4352,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4189,7 +4374,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4211,7 +4396,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4233,7 +4418,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4255,7 +4440,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4277,7 +4462,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4299,7 +4484,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4321,7 +4506,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4343,7 +4528,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4365,7 +4550,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4387,7 +4572,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4409,7 +4594,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4431,7 +4616,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4453,7 +4638,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4461,6 +4646,50 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId33" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId34" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53BD06F-DDF8-FA44-97F5-CA42DABA7117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{48E873DD-9682-4788-AEA0-E63612F3C13A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -405,7 +405,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -472,7 +472,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -539,7 +539,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -606,7 +606,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -673,7 +673,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -740,7 +740,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -807,7 +807,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -874,7 +874,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -941,7 +941,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1008,7 +1008,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1075,7 +1075,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1142,7 +1142,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1209,7 +1209,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1276,7 +1276,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1343,7 +1343,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1410,7 +1410,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1477,7 +1477,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1544,7 +1544,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1611,7 +1611,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1678,7 +1678,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1745,7 +1745,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1812,7 +1812,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1879,7 +1879,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1946,7 +1946,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2013,7 +2013,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2080,7 +2080,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2147,7 +2147,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2214,7 +2214,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2278,14 +2278,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -2294,7 +2299,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050925E5-C2BB-964E-96C5-2BE88D92B451}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2334,7 +2339,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2641,23 +2646,23 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2692,7 +2697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2721,7 +2726,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -2773,7 +2778,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2802,7 +2807,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
@@ -2831,7 +2836,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2860,7 +2865,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -2889,7 +2894,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
@@ -2918,7 +2923,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>203</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>107</v>
       </c>
@@ -2976,7 +2981,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>108</v>
       </c>
@@ -3006,7 +3011,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>109</v>
       </c>
@@ -3036,7 +3041,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>110</v>
       </c>
@@ -3065,7 +3070,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>111</v>
       </c>
@@ -3095,7 +3100,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>112</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>205</v>
       </c>
@@ -3155,7 +3160,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>206</v>
       </c>
@@ -3184,7 +3189,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>207</v>
       </c>
@@ -3244,7 +3249,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>114</v>
       </c>
@@ -3274,7 +3279,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>115</v>
       </c>
@@ -3304,7 +3309,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>116</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>117</v>
       </c>
@@ -3364,7 +3369,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3373,7 +3378,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3382,7 +3387,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3391,7 +3396,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3400,7 +3405,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3409,7 +3414,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3418,7 +3423,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3427,7 +3432,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3436,7 +3441,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3445,7 +3450,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3454,7 +3459,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3463,7 +3468,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3472,7 +3477,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3481,7 +3486,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3490,7 +3495,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3499,7 +3504,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3508,7 +3513,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3517,492 +3522,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -4022,7 +4027,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4066,7 +4071,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4088,7 +4093,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4110,7 +4115,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4132,7 +4137,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4154,7 +4159,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4176,7 +4181,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4198,7 +4203,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4220,7 +4225,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4242,7 +4247,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4264,7 +4269,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4286,7 +4291,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4308,7 +4313,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4330,7 +4335,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4352,7 +4357,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4374,7 +4379,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4396,7 +4401,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4418,7 +4423,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4440,7 +4445,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4462,7 +4467,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4484,7 +4489,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4506,7 +4511,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4528,7 +4533,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4550,7 +4555,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4572,7 +4577,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4594,7 +4599,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4616,7 +4621,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4638,7 +4643,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4660,7 +4665,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4682,7 +4687,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{48E873DD-9682-4788-AEA0-E63612F3C13A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{48E873DD-9682-4788-AEA0-E63612F3C13A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{22C6236B-8DB1-4F2D-AE85-E4EA0CAD3CDB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -240,6 +231,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2340,6 +2339,130 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217613" cy="198438"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8231ACF7-B260-4867-9465-8364789BD783}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217613" cy="198438"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE13411C-845C-4E19-B547-CFF1DBF80B8B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2646,7 +2769,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3370,15 +3493,39 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25">
+        <v>118</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.49236111111111108</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="F25" s="6">
+        <v>42</v>
+      </c>
+      <c r="G25" s="6">
+        <v>438</v>
+      </c>
+      <c r="H25" s="6">
+        <f>G25-F25</f>
+        <v>396</v>
+      </c>
+      <c r="I25" s="4">
+        <v>44606</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>119</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3386,6 +3533,9 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
+      <c r="I26" s="4">
+        <v>44608</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
@@ -4702,6 +4852,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId35" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId36" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{48E873DD-9682-4788-AEA0-E63612F3C13A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{22C6236B-8DB1-4F2D-AE85-E4EA0CAD3CDB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81327C23-FD58-4D58-95B9-FEC67C1113CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -2344,14 +2344,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217613" cy="198438"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -2360,7 +2365,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8231ACF7-B260-4867-9465-8364789BD783}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2400,20 +2405,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>15240</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217613" cy="198438"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -2422,7 +2432,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE13411C-845C-4E19-B547-CFF1DBF80B8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2462,7 +2472,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2769,7 +2779,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3527,12 +3537,23 @@
         <v>119</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.48472222222222222</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="6">
+        <v>225</v>
+      </c>
+      <c r="G26" s="6">
+        <v>322</v>
+      </c>
+      <c r="H26" s="6">
+        <f>G26-F26</f>
+        <v>97</v>
+      </c>
       <c r="I26" s="4">
         <v>44608</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\empschulml\Documents\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81327C23-FD58-4D58-95B9-FEC67C1113CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A818FB52-F0CE-1C4D-B780-7675552F8431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -239,6 +249,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -270,7 +284,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -404,7 +418,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -471,7 +485,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -538,7 +552,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -605,7 +619,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -672,7 +686,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -739,7 +753,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -806,7 +820,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -873,7 +887,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -940,7 +954,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1007,7 +1021,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1074,7 +1088,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1141,7 +1155,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1208,7 +1222,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1275,7 +1289,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1342,7 +1356,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1409,7 +1423,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1476,7 +1490,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1543,7 +1557,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1610,7 +1624,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1677,7 +1691,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1744,7 +1758,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1811,7 +1825,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1878,7 +1892,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1945,7 +1959,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2012,7 +2026,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2079,7 +2093,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2146,7 +2160,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2213,7 +2227,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2280,7 +2294,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2347,7 +2361,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2414,7 +2428,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2473,6 +2487,68 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584A49FE-C7E9-FB46-B09E-4F216AB8EE23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2779,23 +2855,23 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2830,7 +2906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -2859,7 +2935,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -2888,7 +2964,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -2911,7 +2987,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -2940,7 +3016,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -2969,7 +3045,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -2998,7 +3074,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -3027,7 +3103,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -3056,7 +3132,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>203</v>
       </c>
@@ -3085,7 +3161,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -3114,7 +3190,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -3144,7 +3220,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>109</v>
       </c>
@@ -3174,7 +3250,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>110</v>
       </c>
@@ -3203,7 +3279,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111</v>
       </c>
@@ -3233,7 +3309,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112</v>
       </c>
@@ -3263,7 +3339,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>205</v>
       </c>
@@ -3293,7 +3369,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>206</v>
       </c>
@@ -3322,7 +3398,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>113</v>
       </c>
@@ -3352,7 +3428,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>207</v>
       </c>
@@ -3382,7 +3458,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>114</v>
       </c>
@@ -3412,7 +3488,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>115</v>
       </c>
@@ -3442,7 +3518,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>116</v>
       </c>
@@ -3472,7 +3548,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>117</v>
       </c>
@@ -3502,7 +3578,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>118</v>
       </c>
@@ -3532,7 +3608,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>119</v>
       </c>
@@ -3558,16 +3634,33 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>120</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.62013888888888891</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F27" s="6">
+        <v>95</v>
+      </c>
+      <c r="G27" s="6">
+        <v>188</v>
+      </c>
+      <c r="H27" s="6">
+        <f>G27-F27</f>
+        <v>93</v>
+      </c>
+      <c r="I27" s="4">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3576,7 +3669,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3585,7 +3678,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3594,7 +3687,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3603,7 +3696,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3612,7 +3705,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3621,7 +3714,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3630,7 +3723,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3639,7 +3732,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3648,7 +3741,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3657,7 +3750,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3666,7 +3759,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3675,7 +3768,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3684,7 +3777,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3693,492 +3786,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -4198,7 +4291,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4242,7 +4335,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4264,7 +4357,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4286,7 +4379,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4308,7 +4401,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4330,7 +4423,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4352,7 +4445,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4374,7 +4467,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4396,7 +4489,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4418,7 +4511,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4440,7 +4533,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4462,7 +4555,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4484,7 +4577,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4506,7 +4599,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4528,7 +4621,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4550,7 +4643,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4572,7 +4665,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4594,7 +4687,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4616,7 +4709,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4638,7 +4731,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4660,7 +4753,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4682,7 +4775,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4704,7 +4797,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4726,7 +4819,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4748,7 +4841,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4770,7 +4863,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4792,7 +4885,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4814,7 +4907,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4836,7 +4929,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4858,7 +4951,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4880,7 +4973,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4902,7 +4995,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4910,6 +5003,28 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId37" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A818FB52-F0CE-1C4D-B780-7675552F8431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F311247-571A-924F-8A39-82B557A1A969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -2492,14 +2492,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -2508,7 +2513,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584A49FE-C7E9-FB46-B09E-4F216AB8EE23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2548,7 +2553,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2855,7 +2860,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3511,7 +3516,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f>G22-F22</f>
+        <f t="shared" ref="H22:H27" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -3541,7 +3546,7 @@
         <v>630</v>
       </c>
       <c r="H23" s="6">
-        <f>G23-F23</f>
+        <f t="shared" si="0"/>
         <v>460</v>
       </c>
       <c r="I23" s="4">
@@ -3571,7 +3576,7 @@
         <v>38</v>
       </c>
       <c r="H24" s="6">
-        <f>G24-F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="4">
@@ -3601,7 +3606,7 @@
         <v>438</v>
       </c>
       <c r="H25" s="6">
-        <f>G25-F25</f>
+        <f t="shared" si="0"/>
         <v>396</v>
       </c>
       <c r="I25" s="4">
@@ -3627,7 +3632,7 @@
         <v>322</v>
       </c>
       <c r="H26" s="6">
-        <f>G26-F26</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="I26" s="4">
@@ -3638,14 +3643,18 @@
       <c r="A27">
         <v>120</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="C27" s="2">
         <v>0.60555555555555551</v>
       </c>
       <c r="D27" s="2">
         <v>0.62013888888888891</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F27" s="6">
         <v>95</v>
       </c>
@@ -3653,7 +3662,7 @@
         <v>188</v>
       </c>
       <c r="H27" s="6">
-        <f>G27-F27</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="I27" s="4">

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F311247-571A-924F-8A39-82B557A1A969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB8EF2-5062-BA42-AF4B-54624FE334A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -253,6 +253,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2554,6 +2558,68 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6B8099-B42A-3547-A3B3-A85E6640B5D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2860,7 +2926,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3516,7 +3582,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H27" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H28" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -3670,13 +3736,32 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.44930555555555557</v>
+      </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="6">
+        <v>143</v>
+      </c>
+      <c r="G28" s="6">
+        <v>234</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="I28" s="4">
+        <v>44622</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
@@ -5041,6 +5126,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId38" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB8EF2-5062-BA42-AF4B-54624FE334A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECE746-1FD0-364F-B5A6-72344C5FB8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID participant</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -238,23 +241,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2563,14 +2566,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1225550" cy="206375"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -2579,7 +2587,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6B8099-B42A-3547-A3B3-A85E6640B5D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2619,7 +2627,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2925,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3289,7 +3297,9 @@
       <c r="I12" s="4">
         <v>44482</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -3654,7 +3664,7 @@
         <v>118</v>
       </c>
       <c r="B25" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.45277777777777778</v>
       </c>
       <c r="C25" s="2">
         <v>0.4777777777777778</v>
@@ -3683,14 +3693,18 @@
       <c r="A26">
         <v>119</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2">
+        <v>0.45277777777777778</v>
+      </c>
       <c r="C26" s="2">
         <v>0.4770833333333333</v>
       </c>
       <c r="D26" s="2">
         <v>0.48472222222222222</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2">
+        <v>0.53333333333333333</v>
+      </c>
       <c r="F26" s="6">
         <v>225</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFECE746-1FD0-364F-B5A6-72344C5FB8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFFE8C8-2EF7-944E-9FFD-90D5C7869C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -260,6 +260,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2628,6 +2632,68 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="207818"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EF55D6-06E2-0846-84A0-D59DE87ED083}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2934,7 +3000,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3592,7 +3658,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H28" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H29" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -3778,13 +3844,32 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29">
+        <v>208</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="F29" s="6">
+        <v>38</v>
+      </c>
+      <c r="G29" s="6">
+        <v>126</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I29" s="4">
+        <v>44659</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
@@ -5162,6 +5247,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId39" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFFE8C8-2EF7-944E-9FFD-90D5C7869C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7E87E4-0F1D-A148-9374-B0C6E9134346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -264,6 +264,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2637,14 +2641,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="207818"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -2653,7 +2662,69 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EF55D6-06E2-0846-84A0-D59DE87ED083}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E11B96-5AF2-F742-9FAC-0E1F64E20960}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2999,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3872,13 +3943,22 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
+      <c r="B30" s="2">
+        <v>0.45208333333333334</v>
+      </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="6">
+        <v>176</v>
+      </c>
       <c r="H30" s="6"/>
+      <c r="I30" s="4">
+        <v>44664</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
@@ -5269,6 +5349,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId40" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7E87E4-0F1D-A148-9374-B0C6E9134346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A2ADFC-C115-544D-AB1A-F153F78DB5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -268,6 +268,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2708,14 +2712,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -2724,7 +2733,69 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E11B96-5AF2-F742-9FAC-0E1F64E20960}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4263A51-9590-8D4C-9AA6-63D6BF813BA0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3070,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3729,7 +3800,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H29" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H31" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -3943,31 +4014,60 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>209</v>
+      </c>
       <c r="B30" s="2">
         <v>0.45208333333333334</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2">
+        <v>0.46527777777777773</v>
+      </c>
       <c r="D30" s="2">
         <v>0.47916666666666669</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <v>155</v>
+      </c>
       <c r="G30" s="6">
         <v>176</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="I30" s="4">
         <v>44664</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31">
+        <v>122</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.65138888888888891</v>
+      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="6">
+        <v>122</v>
+      </c>
+      <c r="G31" s="6">
+        <v>328</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="I31" s="4">
+        <v>44670</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
@@ -5371,6 +5471,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId41" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A2ADFC-C115-544D-AB1A-F153F78DB5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7D6B4-D5F5-C846-B940-E64EA2DC537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -261,15 +261,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2779,14 +2779,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -2795,7 +2800,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4263A51-9590-8D4C-9AA6-63D6BF813BA0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2835,7 +2840,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3142,7 +3147,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3970,7 +3975,9 @@
       <c r="D28" s="2">
         <v>0.44930555555555557</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>0.50486111111111109</v>
+      </c>
       <c r="F28" s="6">
         <v>143</v>
       </c>
@@ -3998,7 +4005,9 @@
       <c r="D29" s="2">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>0.55694444444444446</v>
+      </c>
       <c r="F29" s="6">
         <v>38</v>
       </c>
@@ -4026,7 +4035,9 @@
       <c r="D30" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2">
+        <v>0.52847222222222223</v>
+      </c>
       <c r="F30" s="6">
         <v>155</v>
       </c>
@@ -4054,7 +4065,9 @@
       <c r="D31" s="2">
         <v>0.65138888888888891</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2">
+        <v>0.71458333333333324</v>
+      </c>
       <c r="F31" s="6">
         <v>122</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7D6B4-D5F5-C846-B940-E64EA2DC537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019ED287-0571-CB48-88EF-86C7CCD88782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -272,8 +272,16 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2841,6 +2849,130 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1271C671-F5B2-7441-9FE6-53E16AA17F50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE4A7EC-0998-3B4E-99B7-9A2846142286}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3147,7 +3279,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3775,8 +3907,8 @@
         <v>179</v>
       </c>
       <c r="H21" s="6">
-        <f>F22</f>
-        <v>187</v>
+        <f>G21-F21</f>
+        <v>72</v>
       </c>
       <c r="I21" s="4">
         <v>44572</v>
@@ -3805,7 +3937,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H31" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H33" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -4083,24 +4215,64 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A32">
+        <v>211</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.60972222222222217</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="F32" s="6">
+        <v>414</v>
+      </c>
+      <c r="G32" s="6">
+        <v>433</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I32" s="4">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>212</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.69861111111111107</v>
+      </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F33" s="6">
+        <v>589</v>
+      </c>
+      <c r="G33" s="6">
+        <v>633</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="I33" s="4">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4109,7 +4281,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4118,7 +4290,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4127,7 +4299,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4136,7 +4308,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4145,7 +4317,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4154,7 +4326,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4163,7 +4335,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4172,37 +4344,37 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -5506,6 +5678,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId42" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>31</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId43" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019ED287-0571-CB48-88EF-86C7CCD88782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D3E1D2-1B08-804F-9B73-46EC022162B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="-5760" yWindow="-24000" windowWidth="25320" windowHeight="24000" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2854,14 +2854,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -2870,7 +2875,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1271C671-F5B2-7441-9FE6-53E16AA17F50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2910,20 +2915,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -2932,7 +2942,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE4A7EC-0998-3B4E-99B7-9A2846142286}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2972,7 +2982,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3279,7 +3289,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4257,7 +4267,9 @@
       <c r="D33" s="2">
         <v>0.69861111111111107</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>0.75</v>
+      </c>
       <c r="F33" s="6">
         <v>589</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D3E1D2-1B08-804F-9B73-46EC022162B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87A198-7CBA-004F-928D-BCF00BA55F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5760" yWindow="-24000" windowWidth="25320" windowHeight="24000" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID participant</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>Check put on time</t>
   </si>
 </sst>
 </file>
@@ -284,6 +287,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -2983,6 +2990,68 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4FB11D-D94A-4546-A12F-8F2E46D31733}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3289,7 +3358,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3947,7 +4016,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H33" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H34" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -4254,7 +4323,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>212</v>
       </c>
@@ -4284,16 +4353,36 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>213</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.56597222222222221</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F34" s="6">
+        <v>133</v>
+      </c>
+      <c r="G34" s="6">
+        <v>317</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="I34" s="4">
+        <v>44700</v>
+      </c>
+      <c r="K34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4302,7 +4391,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4311,7 +4400,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4320,7 +4409,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4329,7 +4418,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4338,7 +4427,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4347,7 +4436,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4356,37 +4445,37 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -5734,6 +5823,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId44" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>33</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87A198-7CBA-004F-928D-BCF00BA55F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{10634363-2C43-42A4-A0FE-3C7BADF91525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -73,7 +63,7 @@
     <t>all</t>
   </si>
   <si>
-    <t>Check put on time</t>
+    <t>Check put on time \\ put off time</t>
   </si>
 </sst>
 </file>
@@ -291,6 +281,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -318,7 +312,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -452,7 +446,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -519,7 +513,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -586,7 +580,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -653,7 +647,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -720,7 +714,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -787,7 +781,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -854,7 +848,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -921,7 +915,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -988,7 +982,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1055,7 +1049,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1122,7 +1116,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1189,7 +1183,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1256,7 +1250,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1323,7 +1317,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1390,7 +1384,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1457,7 +1451,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1524,7 +1518,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1591,7 +1585,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1658,7 +1652,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1725,7 +1719,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1792,7 +1786,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1859,7 +1853,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1926,7 +1920,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1993,7 +1987,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2060,7 +2054,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2127,7 +2121,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2194,7 +2188,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2261,7 +2255,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2328,7 +2322,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2395,7 +2389,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2462,7 +2456,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2529,7 +2523,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2596,7 +2590,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2663,7 +2657,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2671,7 +2665,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2730,7 +2724,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2738,7 +2732,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2797,7 +2791,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2805,7 +2799,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2864,7 +2858,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2872,7 +2866,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2931,7 +2925,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2939,7 +2933,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2995,14 +2989,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>198120</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -3011,7 +3010,69 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4FB11D-D94A-4546-A12F-8F2E46D31733}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>15240</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF6AD6F-8031-400E-8C48-4E9BC6DEDE21}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3357,24 +3418,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3438,7 +3499,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -3467,7 +3528,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -3490,7 +3551,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -3519,7 +3580,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>201</v>
       </c>
@@ -3548,7 +3609,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -3577,7 +3638,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -3606,7 +3667,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
@@ -3635,7 +3696,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>203</v>
       </c>
@@ -3664,7 +3725,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>107</v>
       </c>
@@ -3693,7 +3754,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>108</v>
       </c>
@@ -3725,7 +3786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>109</v>
       </c>
@@ -3755,7 +3816,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>110</v>
       </c>
@@ -3784,7 +3845,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>111</v>
       </c>
@@ -3814,7 +3875,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>112</v>
       </c>
@@ -3844,7 +3905,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>205</v>
       </c>
@@ -3874,7 +3935,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>206</v>
       </c>
@@ -3903,7 +3964,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113</v>
       </c>
@@ -3933,7 +3994,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>207</v>
       </c>
@@ -3963,7 +4024,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>114</v>
       </c>
@@ -3993,7 +4054,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>115</v>
       </c>
@@ -4016,14 +4077,14 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H34" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H35" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
         <v>44580</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>116</v>
       </c>
@@ -4053,7 +4114,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>117</v>
       </c>
@@ -4083,7 +4144,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>118</v>
       </c>
@@ -4113,7 +4174,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>119</v>
       </c>
@@ -4143,7 +4204,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>120</v>
       </c>
@@ -4173,7 +4234,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>121</v>
       </c>
@@ -4203,7 +4264,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>208</v>
       </c>
@@ -4233,7 +4294,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>209</v>
       </c>
@@ -4263,7 +4324,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>122</v>
       </c>
@@ -4293,7 +4354,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>211</v>
       </c>
@@ -4323,7 +4384,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>212</v>
       </c>
@@ -4353,7 +4414,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>213</v>
       </c>
@@ -4382,16 +4443,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>123</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.61041666666666672</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F35" s="6">
+        <v>1155</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1309</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="I35" s="4">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4400,7 +4480,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4409,7 +4489,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4418,7 +4498,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4427,7 +4507,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4436,7 +4516,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4445,492 +4525,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -4950,7 +5030,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -4994,7 +5074,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5016,7 +5096,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5038,7 +5118,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5060,7 +5140,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5082,7 +5162,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5104,7 +5184,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5126,7 +5206,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5148,7 +5228,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5170,7 +5250,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5192,7 +5272,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5214,7 +5294,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5236,7 +5316,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5258,7 +5338,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5280,7 +5360,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5302,7 +5382,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5324,7 +5404,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5346,7 +5426,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5368,7 +5448,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5390,7 +5470,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5412,7 +5492,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5434,7 +5514,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5456,7 +5536,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5478,7 +5558,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5500,7 +5580,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5522,7 +5602,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5544,7 +5624,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5566,7 +5646,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5588,7 +5668,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5610,7 +5690,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5632,7 +5712,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5654,7 +5734,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5676,7 +5756,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5698,7 +5778,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5720,7 +5800,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5728,7 +5808,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5742,7 +5822,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5750,7 +5830,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5764,7 +5844,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5772,7 +5852,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5786,7 +5866,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5794,7 +5874,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5808,7 +5888,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5816,7 +5896,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5830,7 +5910,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>15240</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5838,7 +5918,29 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>203200</xdr:rowOff>
+                    <xdr:rowOff>205740</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId45" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>34</xdr:row>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{10634363-2C43-42A4-A0FE-3C7BADF91525}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D49D8-9E3D-2845-A11C-C75D0609A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16236" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -285,8 +295,44 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -312,7 +358,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -446,7 +492,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -513,7 +559,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -580,7 +626,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -647,7 +693,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -714,7 +760,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -781,7 +827,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -848,7 +894,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -915,7 +961,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -982,7 +1028,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1049,7 +1095,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1116,7 +1162,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1183,7 +1229,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1250,7 +1296,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1317,7 +1363,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1384,7 +1430,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1451,7 +1497,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1518,7 +1564,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1585,7 +1631,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1652,7 +1698,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1719,7 +1765,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1786,7 +1832,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1853,7 +1899,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1920,7 +1966,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1987,7 +2033,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2054,7 +2100,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2121,7 +2167,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2188,7 +2234,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2255,7 +2301,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2322,7 +2368,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2389,7 +2435,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2456,7 +2502,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2523,7 +2569,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2590,7 +2636,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2657,7 +2703,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2665,7 +2711,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2724,7 +2770,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2732,7 +2778,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2791,7 +2837,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2799,7 +2845,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2858,7 +2904,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2866,7 +2912,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2925,7 +2971,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2933,7 +2979,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2992,7 +3038,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3000,7 +3046,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>198120</xdr:rowOff>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3056,14 +3102,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1217815" cy="198120"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
@@ -3072,7 +3123,565 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF6AD6F-8031-400E-8C48-4E9BC6DEDE21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8452DE-A6D8-BC4D-BAA6-047271379CE4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A382C0-FC9A-4343-A2FF-F36AA91049F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F82108-CB0D-E942-9DAA-D0E0B2FC464F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090958E5-2B22-DC4C-9ACB-93E95DF03B73}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBB52C1-7CD8-1F46-9CA9-63AA495111D8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D972F8FD-0BDA-E444-BE07-4E2B653708F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1575A41B-BDD7-764F-822B-EB65C4AB3B53}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA10CBD-2DAB-934E-88F7-9A233388AF64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>12700</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3C45AF-B6BB-FF4E-8223-8B2532569153}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3419,23 +4028,23 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="16.19921875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +4079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3499,7 +4108,7 @@
         <v>44398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
@@ -3528,7 +4137,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
@@ -3551,7 +4160,7 @@
         <v>44405</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
@@ -3580,7 +4189,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>201</v>
       </c>
@@ -3609,7 +4218,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -3638,7 +4247,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -3667,7 +4276,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>202</v>
       </c>
@@ -3696,7 +4305,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>203</v>
       </c>
@@ -3725,7 +4334,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>107</v>
       </c>
@@ -3754,7 +4363,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>108</v>
       </c>
@@ -3786,7 +4395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>109</v>
       </c>
@@ -3816,7 +4425,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>110</v>
       </c>
@@ -3845,7 +4454,7 @@
         <v>44508</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>111</v>
       </c>
@@ -3875,7 +4484,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>112</v>
       </c>
@@ -3905,7 +4514,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>205</v>
       </c>
@@ -3935,7 +4544,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>206</v>
       </c>
@@ -3964,7 +4573,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>113</v>
       </c>
@@ -3994,7 +4603,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>207</v>
       </c>
@@ -4024,7 +4633,7 @@
         <v>44578</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>114</v>
       </c>
@@ -4054,7 +4663,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>115</v>
       </c>
@@ -4077,14 +4686,14 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H35" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H37" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
         <v>44580</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>116</v>
       </c>
@@ -4114,7 +4723,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>117</v>
       </c>
@@ -4144,7 +4753,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>118</v>
       </c>
@@ -4174,7 +4783,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>119</v>
       </c>
@@ -4204,7 +4813,7 @@
         <v>44608</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>120</v>
       </c>
@@ -4234,7 +4843,7 @@
         <v>44620</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>121</v>
       </c>
@@ -4264,7 +4873,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>208</v>
       </c>
@@ -4294,7 +4903,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>209</v>
       </c>
@@ -4324,7 +4933,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>122</v>
       </c>
@@ -4354,7 +4963,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>211</v>
       </c>
@@ -4384,7 +4993,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>212</v>
       </c>
@@ -4414,7 +5023,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>213</v>
       </c>
@@ -4443,7 +5052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>123</v>
       </c>
@@ -4471,25 +5080,65 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>214</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.50624999999999998</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.59236111111111112</v>
+      </c>
+      <c r="F36" s="6">
+        <v>686</v>
+      </c>
+      <c r="G36" s="6">
+        <v>883</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="I36" s="4">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>215</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.6333333333333333</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F37" s="6">
+        <v>1526</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1648</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="I37" s="4">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4498,7 +5147,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4507,7 +5156,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4516,7 +5165,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4525,492 +5174,492 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -5030,7 +5679,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5074,7 +5723,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5096,7 +5745,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5118,7 +5767,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5140,7 +5789,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5162,7 +5811,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5184,7 +5833,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5206,7 +5855,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5228,7 +5877,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5250,7 +5899,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5272,7 +5921,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5294,7 +5943,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5316,7 +5965,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5338,7 +5987,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5360,7 +6009,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5382,7 +6031,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5404,7 +6053,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5426,7 +6075,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5448,7 +6097,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5470,7 +6119,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5492,7 +6141,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5514,7 +6163,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5536,7 +6185,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5558,7 +6207,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5580,7 +6229,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5602,7 +6251,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5624,7 +6273,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5646,7 +6295,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5668,7 +6317,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5690,7 +6339,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5712,7 +6361,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5734,7 +6383,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5756,7 +6405,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5778,7 +6427,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5800,7 +6449,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5808,7 +6457,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5822,7 +6471,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5830,7 +6479,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5844,7 +6493,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5852,7 +6501,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5866,7 +6515,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5874,7 +6523,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5888,7 +6537,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5896,7 +6545,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5910,7 +6559,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5918,7 +6567,7 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>205740</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5932,7 +6581,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>15240</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>34</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5940,7 +6589,205 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>198120</xdr:rowOff>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId46" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>35</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId47" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>36</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId48" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>37</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId49" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>38</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId50" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>39</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId51" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>40</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId52" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>41</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId53" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>42</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId54" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>43</xdr:row>
+                    <xdr:rowOff>203200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D49D8-9E3D-2845-A11C-C75D0609A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AF943-2C08-9E40-B051-F0F8161F95C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3169,14 +3169,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
@@ -3185,7 +3190,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8452DE-A6D8-BC4D-BAA6-047271379CE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3225,20 +3230,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
@@ -3247,7 +3257,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A382C0-FC9A-4343-A2FF-F36AA91049F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3287,20 +3297,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
@@ -3309,7 +3324,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F82108-CB0D-E942-9DAA-D0E0B2FC464F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3349,20 +3364,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
@@ -3371,7 +3391,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{090958E5-2B22-DC4C-9ACB-93E95DF03B73}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3411,20 +3431,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
@@ -3433,7 +3458,7 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBB52C1-7CD8-1F46-9CA9-63AA495111D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3473,20 +3498,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
@@ -3495,7 +3525,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D972F8FD-0BDA-E444-BE07-4E2B653708F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3535,20 +3565,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
@@ -3557,7 +3592,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1575A41B-BDD7-764F-822B-EB65C4AB3B53}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3597,20 +3632,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
@@ -3619,7 +3659,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA10CBD-2DAB-934E-88F7-9A233388AF64}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3659,20 +3699,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1222663" cy="203200"/>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
@@ -3681,7 +3726,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3C45AF-B6BB-FF4E-8223-8B2532569153}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3721,7 +3766,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -4028,7 +4073,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4686,7 +4731,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H37" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H39" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -5139,22 +5184,60 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38">
+        <v>124</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.57291666666666663</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="F38" s="6">
+        <v>25</v>
+      </c>
+      <c r="G38" s="6">
+        <v>45</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I38" s="4">
+        <v>44715</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39">
+        <v>125</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.44166666666666665</v>
+      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="F39" s="6">
+        <v>75</v>
+      </c>
+      <c r="G39" s="6">
+        <v>199</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="I39" s="4">
+        <v>44720</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954AF943-2C08-9E40-B051-F0F8161F95C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF47375-1F36-4B48-8A0C-C44525859BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -4072,8 +4072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5072,14 +5072,18 @@
       <c r="A34">
         <v>213</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="2">
+        <v>0.53402777777777777</v>
+      </c>
       <c r="C34" s="2">
         <v>0.55208333333333337</v>
       </c>
       <c r="D34" s="2">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2">
+        <v>0.60625000000000007</v>
+      </c>
       <c r="F34" s="6">
         <v>133</v>
       </c>
@@ -5110,7 +5114,6 @@
       <c r="D35" s="2">
         <v>0.61041666666666672</v>
       </c>
-      <c r="E35" s="2"/>
       <c r="F35" s="6">
         <v>1155</v>
       </c>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF47375-1F36-4B48-8A0C-C44525859BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E711EA60-43F4-364D-803F-12CE7D27D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID participant</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>all</t>
-  </si>
-  <si>
-    <t>Check put on time \\ put off time</t>
   </si>
 </sst>
 </file>
@@ -4073,7 +4070,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5038,7 +5035,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>212</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>213</v>
       </c>
@@ -5097,11 +5094,8 @@
       <c r="I34" s="4">
         <v>44700</v>
       </c>
-      <c r="K34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>123</v>
       </c>
@@ -5128,7 +5122,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>214</v>
       </c>
@@ -5158,7 +5152,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>215</v>
       </c>
@@ -5186,7 +5180,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>124</v>
       </c>
@@ -5214,7 +5208,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>125</v>
       </c>
@@ -5242,7 +5236,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5251,7 +5245,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5260,37 +5254,37 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E711EA60-43F4-364D-803F-12CE7D27D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30327EF-4FCC-F044-91C1-0E3D8B20BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -4070,7 +4070,7 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4728,7 +4728,7 @@
         <v>754</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H39" si="0">G22-F22</f>
+        <f t="shared" ref="H22:H41" si="0">G22-F22</f>
         <v>567</v>
       </c>
       <c r="I22" s="4">
@@ -5237,22 +5237,62 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="A40">
+        <v>218</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="F40" s="6">
+        <v>62</v>
+      </c>
+      <c r="G40" s="6">
+        <v>149</v>
+      </c>
+      <c r="H40" s="6">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="I40" s="4">
+        <v>44728</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41">
+        <v>219</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.44513888888888892</v>
+      </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="F41" s="6">
+        <v>442</v>
+      </c>
+      <c r="G41" s="6">
+        <v>631</v>
+      </c>
+      <c r="H41" s="6">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="I41" s="4">
+        <v>44728</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>

--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/Heart Rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peerschwertfeger/Documents/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30327EF-4FCC-F044-91C1-0E3D8B20BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4265E5-83BD-8740-AABF-4E167C0742A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{4F0FB0B0-39D8-154D-B13B-3B537C5CF837}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID participant</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>Keine 15 Min. vor Erhebung</t>
   </si>
 </sst>
 </file>
@@ -285,35 +288,35 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4069,8 +4072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3212E7E0-DDDF-634B-B0DF-BCCFBC79ABD7}">
   <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5035,7 +5038,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>212</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>44686</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>213</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>123</v>
       </c>
@@ -5107,6 +5110,9 @@
       </c>
       <c r="D35" s="2">
         <v>0.61041666666666672</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.65972222222222221</v>
       </c>
       <c r="F35" s="6">
         <v>1155</v>
@@ -5121,8 +5127,11 @@
       <c r="I35" s="4">
         <v>44701</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>214</v>
       </c>
@@ -5152,7 +5161,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>215</v>
       </c>
@@ -5163,9 +5172,11 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="D37" s="2">
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="F37" s="6">
         <v>1526</v>
       </c>
@@ -5180,7 +5191,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>124</v>
       </c>
@@ -5193,7 +5204,9 @@
       <c r="D38" s="2">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2">
+        <v>0.63263888888888886</v>
+      </c>
       <c r="F38" s="6">
         <v>25</v>
       </c>
@@ -5208,7 +5221,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>125</v>
       </c>
@@ -5221,7 +5234,9 @@
       <c r="D39" s="2">
         <v>0.44166666666666665</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2">
+        <v>0.4826388888888889</v>
+      </c>
       <c r="F39" s="6">
         <v>75</v>
       </c>
@@ -5236,7 +5251,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>218</v>
       </c>
@@ -5266,7 +5281,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>219</v>
       </c>
@@ -5279,7 +5294,9 @@
       <c r="D41" s="2">
         <v>0.44513888888888892</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2">
+        <v>0.4770833333333333</v>
+      </c>
       <c r="F41" s="6">
         <v>442</v>
       </c>
@@ -5294,37 +5311,37 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
